--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calca-Ramp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calca-Ramp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Calca</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,13 +543,13 @@
         <v>0.354751</v>
       </c>
       <c r="H2">
-        <v>0.7095020000000001</v>
+        <v>0.709502</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7067029850439027</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6163205031315422</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,22 +564,22 @@
         <v>0.66246</v>
       </c>
       <c r="O2">
-        <v>0.02754090533897824</v>
+        <v>0.03343653775821253</v>
       </c>
       <c r="P2">
-        <v>0.02809968171848604</v>
+        <v>0.03487484177052758</v>
       </c>
       <c r="Q2">
-        <v>0.07833611582000001</v>
+        <v>0.07833611582</v>
       </c>
       <c r="R2">
-        <v>0.4700166949200001</v>
+        <v>0.47001669492</v>
       </c>
       <c r="S2">
-        <v>0.02754090533897824</v>
+        <v>0.02362970104326196</v>
       </c>
       <c r="T2">
-        <v>0.02809968171848604</v>
+        <v>0.02149408002664448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,13 +605,13 @@
         <v>0.354751</v>
       </c>
       <c r="H3">
-        <v>0.7095020000000001</v>
+        <v>0.709502</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7067029850439027</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6163205031315422</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.157501666666667</v>
+        <v>1.616755666666667</v>
       </c>
       <c r="N3">
-        <v>6.472505</v>
+        <v>4.850267000000001</v>
       </c>
       <c r="O3">
-        <v>0.2690859033165223</v>
+        <v>0.244808947986161</v>
       </c>
       <c r="P3">
-        <v>0.2745453769605855</v>
+        <v>0.2553396343474497</v>
       </c>
       <c r="Q3">
-        <v>0.7653758737516667</v>
+        <v>0.5735456895056668</v>
       </c>
       <c r="R3">
-        <v>4.59225524251</v>
+        <v>3.441274137034</v>
       </c>
       <c r="S3">
-        <v>0.2690859033165223</v>
+        <v>0.1730072143072775</v>
       </c>
       <c r="T3">
-        <v>0.2745453769605855</v>
+        <v>0.1573710519104442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -664,13 +667,13 @@
         <v>0.354751</v>
       </c>
       <c r="H4">
-        <v>0.7095020000000001</v>
+        <v>0.709502</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7067029850439027</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6163205031315422</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4783195</v>
+        <v>0.817103</v>
       </c>
       <c r="N4">
-        <v>0.956639</v>
+        <v>1.634206</v>
       </c>
       <c r="O4">
-        <v>0.05965651694270175</v>
+        <v>0.1237256376770616</v>
       </c>
       <c r="P4">
-        <v>0.04057792382859458</v>
+        <v>0.08603187463461461</v>
       </c>
       <c r="Q4">
-        <v>0.1696843209445</v>
+        <v>0.289868106353</v>
       </c>
       <c r="R4">
-        <v>0.6787372837780001</v>
+        <v>1.159472425412</v>
       </c>
       <c r="S4">
-        <v>0.05965651694270175</v>
+        <v>0.08743727747283976</v>
       </c>
       <c r="T4">
-        <v>0.04057792382859458</v>
+        <v>0.05302320826015543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,13 +729,13 @@
         <v>0.354751</v>
       </c>
       <c r="H5">
-        <v>0.7095020000000001</v>
+        <v>0.709502</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.7067029850439027</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6163205031315422</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +744,400 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.161250666666667</v>
+        <v>2.532357333333334</v>
       </c>
       <c r="N5">
-        <v>15.483752</v>
+        <v>7.597072000000001</v>
       </c>
       <c r="O5">
-        <v>0.6437166744017977</v>
+        <v>0.38344924188609</v>
       </c>
       <c r="P5">
-        <v>0.656777017492334</v>
+        <v>0.3999436704394311</v>
       </c>
       <c r="Q5">
-        <v>1.830958835250667</v>
+        <v>0.8983562963573334</v>
       </c>
       <c r="R5">
-        <v>10.985753011504</v>
+        <v>5.390137778144</v>
       </c>
       <c r="S5">
-        <v>0.6437166744017977</v>
+        <v>0.2709847238537213</v>
       </c>
       <c r="T5">
-        <v>0.656777017492334</v>
+        <v>0.2464934841895059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.354751</v>
+      </c>
+      <c r="H6">
+        <v>0.709502</v>
+      </c>
+      <c r="I6">
+        <v>0.7067029850439027</v>
+      </c>
+      <c r="J6">
+        <v>0.6163205031315422</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.417116666666667</v>
+      </c>
+      <c r="N6">
+        <v>4.25135</v>
+      </c>
+      <c r="O6">
+        <v>0.2145796346924748</v>
+      </c>
+      <c r="P6">
+        <v>0.223809978807977</v>
+      </c>
+      <c r="Q6">
+        <v>0.5027235546166667</v>
+      </c>
+      <c r="R6">
+        <v>3.0163413277</v>
+      </c>
+      <c r="S6">
+        <v>0.1516440683668021</v>
+      </c>
+      <c r="T6">
+        <v>0.1379386787447922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1472293333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.441688</v>
+      </c>
+      <c r="I7">
+        <v>0.2932970149560972</v>
+      </c>
+      <c r="J7">
+        <v>0.3836794968684579</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.22082</v>
+      </c>
+      <c r="N7">
+        <v>0.66246</v>
+      </c>
+      <c r="O7">
+        <v>0.03343653775821253</v>
+      </c>
+      <c r="P7">
+        <v>0.03487484177052758</v>
+      </c>
+      <c r="Q7">
+        <v>0.03251118138666667</v>
+      </c>
+      <c r="R7">
+        <v>0.29260063248</v>
+      </c>
+      <c r="S7">
+        <v>0.00980683671495057</v>
+      </c>
+      <c r="T7">
+        <v>0.0133807617438831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1472293333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.441688</v>
+      </c>
+      <c r="I8">
+        <v>0.2932970149560972</v>
+      </c>
+      <c r="J8">
+        <v>0.3836794968684579</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.616755666666667</v>
+      </c>
+      <c r="N8">
+        <v>4.850267000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.244808947986161</v>
+      </c>
+      <c r="P8">
+        <v>0.2553396343474497</v>
+      </c>
+      <c r="Q8">
+        <v>0.2380338589662223</v>
+      </c>
+      <c r="R8">
+        <v>2.142304730696</v>
+      </c>
+      <c r="S8">
+        <v>0.0718017336788835</v>
+      </c>
+      <c r="T8">
+        <v>0.0979685824370055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1472293333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.441688</v>
+      </c>
+      <c r="I9">
+        <v>0.2932970149560972</v>
+      </c>
+      <c r="J9">
+        <v>0.3836794968684579</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.817103</v>
+      </c>
+      <c r="N9">
+        <v>1.634206</v>
+      </c>
+      <c r="O9">
+        <v>0.1237256376770616</v>
+      </c>
+      <c r="P9">
+        <v>0.08603187463461461</v>
+      </c>
+      <c r="Q9">
+        <v>0.1203015299546667</v>
+      </c>
+      <c r="R9">
+        <v>0.7218091797280001</v>
+      </c>
+      <c r="S9">
+        <v>0.03628836020422179</v>
+      </c>
+      <c r="T9">
+        <v>0.03300866637445918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1472293333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.441688</v>
+      </c>
+      <c r="I10">
+        <v>0.2932970149560972</v>
+      </c>
+      <c r="J10">
+        <v>0.3836794968684579</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.532357333333334</v>
+      </c>
+      <c r="N10">
+        <v>7.597072000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.38344924188609</v>
+      </c>
+      <c r="P10">
+        <v>0.3999436704394311</v>
+      </c>
+      <c r="Q10">
+        <v>0.3728372819484445</v>
+      </c>
+      <c r="R10">
+        <v>3.355535537536</v>
+      </c>
+      <c r="S10">
+        <v>0.1124645180323687</v>
+      </c>
+      <c r="T10">
+        <v>0.1534501862499253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1472293333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.441688</v>
+      </c>
+      <c r="I11">
+        <v>0.2932970149560972</v>
+      </c>
+      <c r="J11">
+        <v>0.3836794968684579</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.417116666666667</v>
+      </c>
+      <c r="N11">
+        <v>4.25135</v>
+      </c>
+      <c r="O11">
+        <v>0.2145796346924748</v>
+      </c>
+      <c r="P11">
+        <v>0.223809978807977</v>
+      </c>
+      <c r="Q11">
+        <v>0.2086411420888889</v>
+      </c>
+      <c r="R11">
+        <v>1.8777702788</v>
+      </c>
+      <c r="S11">
+        <v>0.06293556632567265</v>
+      </c>
+      <c r="T11">
+        <v>0.08587130006318484</v>
       </c>
     </row>
   </sheetData>
